--- a/database/seeds/edoc_file.xlsx
+++ b/database/seeds/edoc_file.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\haccp_mes\database\seeds\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="3 Common_codeList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -93,9 +88,6 @@
     <t>세균시설 점검결과</t>
   </si>
   <si>
-    <t>세균시설 점검결과- 일베 및 벌레 퇴치를 위한 약물</t>
-  </si>
-  <si>
     <t>사내 교육 훈련일지</t>
   </si>
   <si>
@@ -108,15 +100,9 @@
     <t>작업자 위생점검일지</t>
   </si>
   <si>
-    <t>작업자 위생점검일지 (위생은 중요하지 않겠어…)</t>
-  </si>
-  <si>
     <t>가열기 온도 점검일지</t>
   </si>
   <si>
-    <t>가열기 온도 점검일지-가열차게 점검해야쥐</t>
-  </si>
-  <si>
     <t>시설물 상태 점검표</t>
   </si>
   <si>
@@ -126,17 +112,355 @@
     <t>작업실 위생상태 점검</t>
   </si>
   <si>
-    <t>작업실 위생상태 점검 (코로나니 손 깨깐히 하길)</t>
-  </si>
-  <si>
-    <t>아 피곤하다 설계는 하나하나 다 해야 하니</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세균시설</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점검결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위생점검일지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위생은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>…)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가열기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>온도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점검일지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가열차게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점검</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위생상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점검</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코로나니</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>청결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계서</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복만사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -145,6 +469,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,12 +508,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,7 +784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,18 +798,18 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -524,7 +866,7 @@
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -543,7 +885,7 @@
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -562,7 +904,7 @@
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -581,7 +923,7 @@
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -600,7 +942,7 @@
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -608,8 +950,8 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="1"/>
       <c r="I7" t="s">
@@ -619,54 +961,54 @@
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="1"/>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8">
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="1"/>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9">
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="1"/>
       <c r="I10" t="s">
@@ -676,16 +1018,16 @@
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1"/>
       <c r="I11" t="s">
@@ -695,15 +1037,15 @@
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="1"/>
@@ -714,16 +1056,16 @@
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="1"/>
       <c r="I13" t="s">
@@ -733,329 +1075,329 @@
         <v>20201213123320</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1063,6 +1405,7 @@
       <c r="E60" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
